--- a/receptive_field.xlsx
+++ b/receptive_field.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21601"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21629"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dev\audio_tagging\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D7BC73E9-C273-44CF-B9A1-1CE820F9D1C2}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3B8A859-1D02-48A6-B4E8-1A48C4B70435}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-5070" yWindow="-16320" windowWidth="29040" windowHeight="15840" xr2:uid="{0C91D080-4855-489F-A6D3-86FC3CD1DB13}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{0C91D080-4855-489F-A6D3-86FC3CD1DB13}"/>
   </bookViews>
   <sheets>
     <sheet name="Munka1" sheetId="1" r:id="rId1"/>
@@ -472,7 +472,7 @@
   <dimension ref="A1:M18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F17" sqref="F17"/>
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -995,7 +995,7 @@
         <v>60</v>
       </c>
       <c r="C15">
-        <v>41</v>
+        <v>77</v>
       </c>
       <c r="D15">
         <v>80</v>
@@ -1019,12 +1019,12 @@
         <v>0</v>
       </c>
       <c r="K15">
-        <f>(B15-E15+2*I15)/G15+1</f>
+        <f t="shared" ref="K15:L18" si="16">(B15-E15+2*I15)/G15+1</f>
         <v>4</v>
       </c>
       <c r="L15">
-        <f>(C15-F15+2*J15)/H15+1</f>
-        <v>36</v>
+        <f t="shared" si="16"/>
+        <v>72</v>
       </c>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.25">
@@ -1032,12 +1032,12 @@
         <v>24</v>
       </c>
       <c r="B16">
-        <f>K15</f>
+        <f t="shared" ref="B16:C18" si="17">K15</f>
         <v>4</v>
       </c>
       <c r="C16">
-        <f>L15</f>
-        <v>36</v>
+        <f t="shared" si="17"/>
+        <v>72</v>
       </c>
       <c r="D16">
         <v>0</v>
@@ -1061,12 +1061,12 @@
         <v>0</v>
       </c>
       <c r="K16">
-        <f>(B16-E16+2*I16)/G16+1</f>
+        <f t="shared" si="16"/>
         <v>1</v>
       </c>
       <c r="L16">
-        <f>(C16-F16+2*J16)/H16+1</f>
-        <v>12</v>
+        <f t="shared" si="16"/>
+        <v>24</v>
       </c>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.25">
@@ -1074,12 +1074,12 @@
         <v>13</v>
       </c>
       <c r="B17">
-        <f>K16</f>
+        <f t="shared" si="17"/>
         <v>1</v>
       </c>
       <c r="C17">
-        <f>L16</f>
-        <v>12</v>
+        <f t="shared" si="17"/>
+        <v>24</v>
       </c>
       <c r="D17">
         <v>80</v>
@@ -1103,12 +1103,12 @@
         <v>0</v>
       </c>
       <c r="K17">
-        <f>(B17-E17+2*I17)/G17+1</f>
+        <f t="shared" si="16"/>
         <v>1</v>
       </c>
       <c r="L17">
-        <f>(C17-F17+2*J17)/H17+1</f>
-        <v>9</v>
+        <f t="shared" si="16"/>
+        <v>21</v>
       </c>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.25">
@@ -1116,12 +1116,12 @@
         <v>24</v>
       </c>
       <c r="B18">
-        <f>K17</f>
+        <f t="shared" si="17"/>
         <v>1</v>
       </c>
       <c r="C18">
-        <f>L17</f>
-        <v>9</v>
+        <f t="shared" si="17"/>
+        <v>21</v>
       </c>
       <c r="D18">
         <v>0</v>
@@ -1145,12 +1145,12 @@
         <v>0</v>
       </c>
       <c r="K18">
-        <f>(B18-E18+2*I18)/G18+1</f>
+        <f t="shared" si="16"/>
         <v>1</v>
       </c>
       <c r="L18">
-        <f>(C18-F18+2*J18)/H18+1</f>
-        <v>3</v>
+        <f t="shared" si="16"/>
+        <v>7</v>
       </c>
     </row>
   </sheetData>

--- a/receptive_field.xlsx
+++ b/receptive_field.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dev\audio_tagging\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3B8A859-1D02-48A6-B4E8-1A48C4B70435}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB380FE2-F8EC-44AB-BEBF-3482FE3427F2}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{0C91D080-4855-489F-A6D3-86FC3CD1DB13}"/>
+    <workbookView xWindow="-4545" yWindow="-16320" windowWidth="29040" windowHeight="15840" xr2:uid="{0C91D080-4855-489F-A6D3-86FC3CD1DB13}"/>
   </bookViews>
   <sheets>
     <sheet name="Munka1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029" refMode="R1C1"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="27">
   <si>
     <t>n_in</t>
   </si>
@@ -75,12 +75,6 @@
   </si>
   <si>
     <t>pool</t>
-  </si>
-  <si>
-    <t>C3</t>
-  </si>
-  <si>
-    <t>C4</t>
   </si>
   <si>
     <t>in_width</t>
@@ -472,7 +466,7 @@
   <dimension ref="A1:M18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+      <selection activeCell="J9" sqref="J9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -516,27 +510,27 @@
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>11</v>
+      <c r="A2">
+        <v>1</v>
       </c>
       <c r="B2" t="s">
         <v>12</v>
       </c>
       <c r="C2">
-        <v>128</v>
+        <v>220</v>
       </c>
       <c r="D2">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
         <f t="shared" ref="G2:G10" si="0">(C2+2*E2-D2)/F2+1</f>
-        <v>128</v>
+        <v>220</v>
       </c>
       <c r="H2">
         <f t="shared" ref="H2:H10" si="1">I2*F2</f>
@@ -547,7 +541,7 @@
       </c>
       <c r="J2">
         <f>K2+(D2-1)*I2</f>
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="K2">
         <v>1</v>
@@ -561,32 +555,32 @@
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>11</v>
+      <c r="A3">
+        <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C3">
         <f t="shared" ref="C3:C10" si="2">G2</f>
-        <v>128</v>
+        <v>220</v>
       </c>
       <c r="D3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G3">
         <f t="shared" si="0"/>
-        <v>64</v>
+        <v>220</v>
       </c>
       <c r="H3">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I3">
         <f t="shared" ref="I3:I10" si="3">H2</f>
@@ -594,11 +588,11 @@
       </c>
       <c r="J3">
         <f t="shared" ref="J3" si="4">K3+(D3-1)*I3</f>
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="K3">
         <f t="shared" ref="K3:K10" si="5">J2</f>
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <f t="shared" ref="L3:L10" si="6">M2</f>
@@ -606,32 +600,32 @@
       </c>
       <c r="M3">
         <f t="shared" ref="M3" si="7">L3+((D3-1)/2-E3)*I3</f>
-        <v>1</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>13</v>
+      <c r="A4">
+        <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C4">
         <f t="shared" si="2"/>
-        <v>64</v>
+        <v>220</v>
       </c>
       <c r="D4">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E4">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G4">
         <f t="shared" si="0"/>
-        <v>64</v>
+        <v>110</v>
       </c>
       <c r="H4">
         <f t="shared" si="1"/>
@@ -639,19 +633,19 @@
       </c>
       <c r="I4">
         <f t="shared" si="3"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J4">
         <f t="shared" ref="J4:J5" si="8">K4+(D4-1)*I4</f>
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="K4">
         <f t="shared" si="5"/>
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="L4">
         <f t="shared" si="6"/>
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="M4">
         <f t="shared" ref="M4:M5" si="9">L4+((D4-1)/2-E4)*I4</f>
@@ -659,32 +653,32 @@
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>13</v>
+      <c r="A5">
+        <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C5">
         <f t="shared" si="2"/>
-        <v>64</v>
+        <v>110</v>
       </c>
       <c r="D5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G5">
         <f t="shared" si="0"/>
-        <v>32</v>
+        <v>110</v>
       </c>
       <c r="H5">
         <f t="shared" si="1"/>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I5">
         <f t="shared" si="3"/>
@@ -692,11 +686,11 @@
       </c>
       <c r="J5">
         <f t="shared" si="8"/>
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="K5">
         <f t="shared" si="5"/>
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="L5">
         <f t="shared" si="6"/>
@@ -704,68 +698,68 @@
       </c>
       <c r="M5">
         <f t="shared" si="9"/>
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>15</v>
+      <c r="A6">
+        <v>5</v>
       </c>
       <c r="B6" t="s">
         <v>12</v>
       </c>
       <c r="C6">
         <f t="shared" si="2"/>
-        <v>32</v>
+        <v>110</v>
       </c>
       <c r="D6">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
         <f t="shared" si="0"/>
-        <v>32</v>
+        <v>110</v>
       </c>
       <c r="H6">
         <f t="shared" si="1"/>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I6">
         <f t="shared" si="3"/>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J6">
         <f t="shared" ref="J6:J7" si="10">K6+(D6-1)*I6</f>
-        <v>32</v>
+        <v>14</v>
       </c>
       <c r="K6">
         <f t="shared" si="5"/>
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="L6">
         <f t="shared" si="6"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M6">
         <f t="shared" ref="M6:M7" si="11">L6+((D6-1)/2-E6)*I6</f>
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>15</v>
+      <c r="A7">
+        <v>6</v>
       </c>
       <c r="B7" t="s">
         <v>14</v>
       </c>
       <c r="C7">
         <f t="shared" si="2"/>
-        <v>32</v>
+        <v>110</v>
       </c>
       <c r="D7">
         <v>2</v>
@@ -778,129 +772,129 @@
       </c>
       <c r="G7">
         <f t="shared" si="0"/>
-        <v>16</v>
+        <v>55</v>
       </c>
       <c r="H7">
         <f t="shared" si="1"/>
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="I7">
         <f t="shared" si="3"/>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J7">
         <f t="shared" si="10"/>
-        <v>36</v>
+        <v>16</v>
       </c>
       <c r="K7">
         <f t="shared" si="5"/>
-        <v>32</v>
+        <v>14</v>
       </c>
       <c r="L7">
         <f t="shared" si="6"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M7">
         <f t="shared" si="11"/>
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>16</v>
+      <c r="A8">
+        <v>7</v>
       </c>
       <c r="B8" t="s">
         <v>12</v>
       </c>
       <c r="C8">
         <f t="shared" si="2"/>
-        <v>16</v>
+        <v>55</v>
       </c>
       <c r="D8">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
         <f t="shared" si="0"/>
-        <v>16</v>
+        <v>55</v>
       </c>
       <c r="H8">
         <f t="shared" si="1"/>
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="I8">
         <f t="shared" si="3"/>
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="J8">
         <f t="shared" ref="J8:J9" si="12">K8+(D8-1)*I8</f>
-        <v>68</v>
+        <v>24</v>
       </c>
       <c r="K8">
         <f t="shared" si="5"/>
-        <v>36</v>
+        <v>16</v>
       </c>
       <c r="L8">
         <f t="shared" si="6"/>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="M8">
         <f t="shared" ref="M8:M9" si="13">L8+((D8-1)/2-E8)*I8</f>
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>16</v>
+      <c r="A9">
+        <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C9">
         <f t="shared" si="2"/>
-        <v>16</v>
+        <v>55</v>
       </c>
       <c r="D9">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F9">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G9">
         <f t="shared" si="0"/>
-        <v>8</v>
+        <v>55</v>
       </c>
       <c r="H9">
         <f t="shared" si="1"/>
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="I9">
         <f t="shared" si="3"/>
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="J9">
         <f t="shared" si="12"/>
-        <v>76</v>
+        <v>32</v>
       </c>
       <c r="K9">
         <f t="shared" si="5"/>
-        <v>68</v>
+        <v>24</v>
       </c>
       <c r="L9">
         <f t="shared" si="6"/>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="M9">
         <f t="shared" si="13"/>
-        <v>8</v>
+        <v>2</v>
       </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.25">
@@ -912,7 +906,7 @@
       </c>
       <c r="C10">
         <f t="shared" si="2"/>
-        <v>8</v>
+        <v>55</v>
       </c>
       <c r="D10">
         <v>5</v>
@@ -925,66 +919,66 @@
       </c>
       <c r="G10">
         <f t="shared" si="0"/>
-        <v>8</v>
+        <v>55</v>
       </c>
       <c r="H10">
         <f t="shared" si="1"/>
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="I10">
         <f t="shared" si="3"/>
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="J10">
         <f t="shared" ref="J10" si="14">K10+(D10-1)*I10</f>
-        <v>140</v>
+        <v>48</v>
       </c>
       <c r="K10">
         <f t="shared" si="5"/>
-        <v>76</v>
+        <v>32</v>
       </c>
       <c r="L10">
         <f t="shared" si="6"/>
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="M10">
         <f t="shared" ref="M10" si="15">L10+((D10-1)/2-E10)*I10</f>
-        <v>8</v>
+        <v>2</v>
       </c>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
+        <v>15</v>
+      </c>
+      <c r="C14" t="s">
+        <v>16</v>
+      </c>
+      <c r="D14" t="s">
         <v>17</v>
       </c>
-      <c r="C14" t="s">
+      <c r="E14" t="s">
         <v>18</v>
       </c>
-      <c r="D14" t="s">
+      <c r="F14" t="s">
         <v>19</v>
       </c>
-      <c r="E14" t="s">
+      <c r="G14" t="s">
+        <v>23</v>
+      </c>
+      <c r="H14" t="s">
+        <v>24</v>
+      </c>
+      <c r="I14" t="s">
+        <v>25</v>
+      </c>
+      <c r="J14" t="s">
+        <v>26</v>
+      </c>
+      <c r="K14" t="s">
         <v>20</v>
       </c>
-      <c r="F14" t="s">
+      <c r="L14" t="s">
         <v>21</v>
-      </c>
-      <c r="G14" t="s">
-        <v>25</v>
-      </c>
-      <c r="H14" t="s">
-        <v>26</v>
-      </c>
-      <c r="I14" t="s">
-        <v>27</v>
-      </c>
-      <c r="J14" t="s">
-        <v>28</v>
-      </c>
-      <c r="K14" t="s">
-        <v>22</v>
-      </c>
-      <c r="L14" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.25">
@@ -1029,7 +1023,7 @@
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B16">
         <f t="shared" ref="B16:C18" si="17">K15</f>
@@ -1113,7 +1107,7 @@
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B18">
         <f t="shared" si="17"/>
